--- a/data/metadata/P13_2/P13_2_table_to_fill_Wextrasamples2.xlsx
+++ b/data/metadata/P13_2/P13_2_table_to_fill_Wextrasamples2.xlsx
@@ -332,7 +332,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -737,7 +737,7 @@
         <v>43754</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>58.1266</v>
+        <v>56.1266</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10.1408</v>
